--- a/document/excel_upload_자료/TBL_EXP_AUTH.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_AUTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA3AF2-477C-4827-9DBE-EF2388BD530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440EAEBE-EC33-43F2-BD61-4ED5D58FE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>windrider</t>
+  </si>
+  <si>
+    <t>newko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYER_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,14 +326,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EC3AF-2A49-466E-A4CC-7F079F3A2F81}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.25" defaultRowHeight="16.5"/>
@@ -677,13 +685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="24">
@@ -739,10 +747,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -750,8 +758,16 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
